--- a/Krudtuglerne - Afrika - 2025-11-29.xlsx
+++ b/Krudtuglerne - Afrika - 2025-11-29.xlsx
@@ -504,12 +504,12 @@
     <col width="22" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="11" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="7.15" customHeight="1">
       <c r="E1" s="9" t="n"/>
-      <c r="L1" s="9" t="n"/>
+      <c r="K1" s="9" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="E2" s="9" t="n"/>
-      <c r="L2" s="9" t="n"/>
+      <c r="K2" s="9" t="n"/>
     </row>
     <row r="3">
       <c r="B3" s="1" t="n"/>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="E3" s="9" t="n"/>
-      <c r="L3" s="9" t="n"/>
+      <c r="K3" s="9" t="n"/>
     </row>
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="E4" s="9" t="n"/>
-      <c r="L4" s="9" t="n"/>
+      <c r="K4" s="9" t="n"/>
     </row>
     <row r="5">
       <c r="B5" s="1" t="n"/>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="E5" s="9" t="n"/>
-      <c r="L5" s="9" t="n"/>
+      <c r="K5" s="9" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="E6" s="9" t="n"/>
-      <c r="L6" s="9" t="n"/>
+      <c r="K6" s="9" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="1" t="n"/>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="E7" s="9" t="n"/>
-      <c r="L7" s="9" t="n"/>
+      <c r="K7" s="9" t="n"/>
     </row>
     <row r="8" customFormat="1" s="2">
       <c r="A8" s="4" t="n"/>
@@ -611,21 +611,17 @@
           <t>Patrick</t>
         </is>
       </c>
-      <c r="K8" s="11" t="inlineStr">
-        <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="L8" s="10" t="inlineStr">
+      <c r="K8" s="10" t="inlineStr">
         <is>
           <t>Gennemsnit</t>
         </is>
       </c>
-      <c r="M8" s="11" t="inlineStr">
+      <c r="L8" s="11" t="inlineStr">
         <is>
           <t>Varians</t>
         </is>
       </c>
+      <c r="M8" s="4" t="n"/>
       <c r="N8" s="4" t="n"/>
       <c r="O8" s="4" t="n"/>
       <c r="P8" s="4" t="n"/>
@@ -652,8 +648,8 @@
       <c r="H9" s="12" t="n"/>
       <c r="I9" s="12" t="n"/>
       <c r="J9" s="12" t="n"/>
-      <c r="K9" s="12" t="n"/>
-      <c r="L9" s="14" t="n"/>
+      <c r="K9" s="14" t="n"/>
+      <c r="L9" s="12" t="n"/>
       <c r="M9" s="12" t="n"/>
       <c r="N9" s="12" t="n"/>
       <c r="O9" s="12" t="n"/>
@@ -665,34 +661,34 @@
     </row>
     <row r="10">
       <c r="E10" s="9" t="n"/>
-      <c r="L10" s="9">
-        <f>AVERAGE(E10:K10)</f>
-        <v/>
-      </c>
-      <c r="M10">
-        <f>VAR.P(E10:K10)</f>
+      <c r="K10" s="9">
+        <f>AVERAGE(E10:J10)</f>
+        <v/>
+      </c>
+      <c r="L10">
+        <f>VAR.P(E10:J10)</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="E11" s="9" t="n"/>
-      <c r="L11" s="9">
-        <f>AVERAGE(E11:K11)</f>
-        <v/>
-      </c>
-      <c r="M11">
-        <f>VAR.P(E11:K11)</f>
+      <c r="K11" s="9">
+        <f>AVERAGE(E11:J11)</f>
+        <v/>
+      </c>
+      <c r="L11">
+        <f>VAR.P(E11:J11)</f>
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="E12" s="9" t="n"/>
-      <c r="L12" s="9">
-        <f>AVERAGE(E12:K12)</f>
-        <v/>
-      </c>
-      <c r="M12">
-        <f>VAR.P(E12:K12)</f>
+      <c r="K12" s="9">
+        <f>AVERAGE(E12:J12)</f>
+        <v/>
+      </c>
+      <c r="L12">
+        <f>VAR.P(E12:J12)</f>
         <v/>
       </c>
     </row>
@@ -711,8 +707,8 @@
       <c r="H13" s="12" t="n"/>
       <c r="I13" s="12" t="n"/>
       <c r="J13" s="12" t="n"/>
-      <c r="K13" s="12" t="n"/>
-      <c r="L13" s="14" t="n"/>
+      <c r="K13" s="14" t="n"/>
+      <c r="L13" s="12" t="n"/>
       <c r="M13" s="12" t="n"/>
       <c r="N13" s="12" t="n"/>
       <c r="O13" s="12" t="n"/>
@@ -724,34 +720,34 @@
     </row>
     <row r="14">
       <c r="E14" s="9" t="n"/>
-      <c r="L14" s="9">
-        <f>AVERAGE(E14:K14)</f>
-        <v/>
-      </c>
-      <c r="M14">
-        <f>VAR.P(E14:K14)</f>
+      <c r="K14" s="9">
+        <f>AVERAGE(E14:J14)</f>
+        <v/>
+      </c>
+      <c r="L14">
+        <f>VAR.P(E14:J14)</f>
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="E15" s="9" t="n"/>
-      <c r="L15" s="9">
-        <f>AVERAGE(E15:K15)</f>
-        <v/>
-      </c>
-      <c r="M15">
-        <f>VAR.P(E15:K15)</f>
+      <c r="K15" s="9">
+        <f>AVERAGE(E15:J15)</f>
+        <v/>
+      </c>
+      <c r="L15">
+        <f>VAR.P(E15:J15)</f>
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="E16" s="9" t="n"/>
-      <c r="L16" s="9">
-        <f>AVERAGE(E16:K16)</f>
-        <v/>
-      </c>
-      <c r="M16">
-        <f>VAR.P(E16:K16)</f>
+      <c r="K16" s="9">
+        <f>AVERAGE(E16:J16)</f>
+        <v/>
+      </c>
+      <c r="L16">
+        <f>VAR.P(E16:J16)</f>
         <v/>
       </c>
     </row>
@@ -770,8 +766,8 @@
       <c r="H17" s="12" t="n"/>
       <c r="I17" s="12" t="n"/>
       <c r="J17" s="12" t="n"/>
-      <c r="K17" s="12" t="n"/>
-      <c r="L17" s="14" t="n"/>
+      <c r="K17" s="14" t="n"/>
+      <c r="L17" s="12" t="n"/>
       <c r="M17" s="12" t="n"/>
       <c r="N17" s="12" t="n"/>
       <c r="O17" s="12" t="n"/>
@@ -783,34 +779,34 @@
     </row>
     <row r="18">
       <c r="E18" s="9" t="n"/>
-      <c r="L18" s="9">
-        <f>AVERAGE(E18:K18)</f>
-        <v/>
-      </c>
-      <c r="M18">
-        <f>VAR.P(E18:K18)</f>
+      <c r="K18" s="9">
+        <f>AVERAGE(E18:J18)</f>
+        <v/>
+      </c>
+      <c r="L18">
+        <f>VAR.P(E18:J18)</f>
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="E19" s="9" t="n"/>
-      <c r="L19" s="9">
-        <f>AVERAGE(E19:K19)</f>
-        <v/>
-      </c>
-      <c r="M19">
-        <f>VAR.P(E19:K19)</f>
+      <c r="K19" s="9">
+        <f>AVERAGE(E19:J19)</f>
+        <v/>
+      </c>
+      <c r="L19">
+        <f>VAR.P(E19:J19)</f>
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="E20" s="9" t="n"/>
-      <c r="L20" s="9">
-        <f>AVERAGE(E20:K20)</f>
-        <v/>
-      </c>
-      <c r="M20">
-        <f>VAR.P(E20:K20)</f>
+      <c r="K20" s="9">
+        <f>AVERAGE(E20:J20)</f>
+        <v/>
+      </c>
+      <c r="L20">
+        <f>VAR.P(E20:J20)</f>
         <v/>
       </c>
     </row>
@@ -829,8 +825,8 @@
       <c r="H21" s="12" t="n"/>
       <c r="I21" s="12" t="n"/>
       <c r="J21" s="12" t="n"/>
-      <c r="K21" s="12" t="n"/>
-      <c r="L21" s="14" t="n"/>
+      <c r="K21" s="14" t="n"/>
+      <c r="L21" s="12" t="n"/>
       <c r="M21" s="12" t="n"/>
       <c r="N21" s="12" t="n"/>
       <c r="O21" s="12" t="n"/>
@@ -842,34 +838,34 @@
     </row>
     <row r="22">
       <c r="E22" s="9" t="n"/>
-      <c r="L22" s="9">
-        <f>AVERAGE(E22:K22)</f>
-        <v/>
-      </c>
-      <c r="M22">
-        <f>VAR.P(E22:K22)</f>
+      <c r="K22" s="9">
+        <f>AVERAGE(E22:J22)</f>
+        <v/>
+      </c>
+      <c r="L22">
+        <f>VAR.P(E22:J22)</f>
         <v/>
       </c>
     </row>
     <row r="23">
       <c r="E23" s="9" t="n"/>
-      <c r="L23" s="9">
-        <f>AVERAGE(E23:K23)</f>
-        <v/>
-      </c>
-      <c r="M23">
-        <f>VAR.P(E23:K23)</f>
+      <c r="K23" s="9">
+        <f>AVERAGE(E23:J23)</f>
+        <v/>
+      </c>
+      <c r="L23">
+        <f>VAR.P(E23:J23)</f>
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="E24" s="9" t="n"/>
-      <c r="L24" s="9">
-        <f>AVERAGE(E24:K24)</f>
-        <v/>
-      </c>
-      <c r="M24">
-        <f>VAR.P(E24:K24)</f>
+      <c r="K24" s="9">
+        <f>AVERAGE(E24:J24)</f>
+        <v/>
+      </c>
+      <c r="L24">
+        <f>VAR.P(E24:J24)</f>
         <v/>
       </c>
     </row>
@@ -888,8 +884,8 @@
       <c r="H25" s="12" t="n"/>
       <c r="I25" s="12" t="n"/>
       <c r="J25" s="12" t="n"/>
-      <c r="K25" s="12" t="n"/>
-      <c r="L25" s="14" t="n"/>
+      <c r="K25" s="14" t="n"/>
+      <c r="L25" s="12" t="n"/>
       <c r="M25" s="12" t="n"/>
       <c r="N25" s="12" t="n"/>
       <c r="O25" s="12" t="n"/>
@@ -901,34 +897,34 @@
     </row>
     <row r="26">
       <c r="E26" s="9" t="n"/>
-      <c r="L26" s="9">
-        <f>AVERAGE(E26:K26)</f>
-        <v/>
-      </c>
-      <c r="M26">
-        <f>VAR.P(E26:K26)</f>
+      <c r="K26" s="9">
+        <f>AVERAGE(E26:J26)</f>
+        <v/>
+      </c>
+      <c r="L26">
+        <f>VAR.P(E26:J26)</f>
         <v/>
       </c>
     </row>
     <row r="27">
       <c r="E27" s="9" t="n"/>
-      <c r="L27" s="9">
-        <f>AVERAGE(E27:K27)</f>
-        <v/>
-      </c>
-      <c r="M27">
-        <f>VAR.P(E27:K27)</f>
+      <c r="K27" s="9">
+        <f>AVERAGE(E27:J27)</f>
+        <v/>
+      </c>
+      <c r="L27">
+        <f>VAR.P(E27:J27)</f>
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="E28" s="9" t="n"/>
-      <c r="L28" s="9">
-        <f>AVERAGE(E28:K28)</f>
-        <v/>
-      </c>
-      <c r="M28">
-        <f>VAR.P(E28:K28)</f>
+      <c r="K28" s="9">
+        <f>AVERAGE(E28:J28)</f>
+        <v/>
+      </c>
+      <c r="L28">
+        <f>VAR.P(E28:J28)</f>
         <v/>
       </c>
     </row>
@@ -947,8 +943,8 @@
       <c r="H29" s="12" t="n"/>
       <c r="I29" s="12" t="n"/>
       <c r="J29" s="12" t="n"/>
-      <c r="K29" s="12" t="n"/>
-      <c r="L29" s="14" t="n"/>
+      <c r="K29" s="14" t="n"/>
+      <c r="L29" s="12" t="n"/>
       <c r="M29" s="12" t="n"/>
       <c r="N29" s="12" t="n"/>
       <c r="O29" s="12" t="n"/>
@@ -960,1951 +956,1908 @@
     </row>
     <row r="30">
       <c r="E30" s="9" t="n"/>
-      <c r="L30" s="9">
-        <f>AVERAGE(E30:K30)</f>
-        <v/>
-      </c>
-      <c r="M30">
-        <f>VAR.P(E30:K30)</f>
+      <c r="K30" s="9">
+        <f>AVERAGE(E30:J30)</f>
+        <v/>
+      </c>
+      <c r="L30">
+        <f>VAR.P(E30:J30)</f>
         <v/>
       </c>
     </row>
     <row r="31">
       <c r="E31" s="9" t="n"/>
-      <c r="L31" s="9">
-        <f>AVERAGE(E31:K31)</f>
-        <v/>
-      </c>
-      <c r="M31">
-        <f>VAR.P(E31:K31)</f>
+      <c r="K31" s="9">
+        <f>AVERAGE(E31:J31)</f>
+        <v/>
+      </c>
+      <c r="L31">
+        <f>VAR.P(E31:J31)</f>
         <v/>
       </c>
     </row>
     <row r="32">
       <c r="E32" s="9" t="n"/>
-      <c r="L32" s="9">
-        <f>AVERAGE(E32:K32)</f>
-        <v/>
-      </c>
-      <c r="M32">
-        <f>VAR.P(E32:K32)</f>
+      <c r="K32" s="9">
+        <f>AVERAGE(E32:J32)</f>
+        <v/>
+      </c>
+      <c r="L32">
+        <f>VAR.P(E32:J32)</f>
         <v/>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="12" t="n"/>
-      <c r="B33" s="13" t="inlineStr">
-        <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="12" t="n"/>
-      <c r="E33" s="14" t="n"/>
-      <c r="F33" s="12" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="12" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="12" t="n"/>
-      <c r="K33" s="12" t="n"/>
-      <c r="L33" s="14" t="n"/>
-      <c r="M33" s="12" t="n"/>
-      <c r="N33" s="12" t="n"/>
-      <c r="O33" s="12" t="n"/>
-      <c r="P33" s="12" t="n"/>
-      <c r="Q33" s="12" t="n"/>
-      <c r="R33" s="12" t="n"/>
-      <c r="S33" s="12" t="n"/>
-      <c r="T33" s="12" t="n"/>
+      <c r="E33" s="9" t="n"/>
+      <c r="K33" s="9" t="n"/>
     </row>
     <row r="34">
       <c r="E34" s="9" t="n"/>
-      <c r="L34" s="9">
-        <f>AVERAGE(E34:K34)</f>
-        <v/>
-      </c>
-      <c r="M34">
-        <f>VAR.P(E34:K34)</f>
-        <v/>
-      </c>
+      <c r="K34" s="9" t="n"/>
     </row>
     <row r="35">
       <c r="E35" s="9" t="n"/>
-      <c r="L35" s="9">
-        <f>AVERAGE(E35:K35)</f>
-        <v/>
-      </c>
-      <c r="M35">
-        <f>VAR.P(E35:K35)</f>
-        <v/>
-      </c>
+      <c r="K35" s="9" t="n"/>
     </row>
     <row r="36">
       <c r="E36" s="9" t="n"/>
-      <c r="L36" s="9">
-        <f>AVERAGE(E36:K36)</f>
-        <v/>
-      </c>
-      <c r="M36">
-        <f>VAR.P(E36:K36)</f>
-        <v/>
-      </c>
+      <c r="K36" s="9" t="n"/>
     </row>
     <row r="37">
       <c r="E37" s="9" t="n"/>
-      <c r="L37" s="9" t="n"/>
+      <c r="K37" s="9" t="n"/>
     </row>
     <row r="38">
       <c r="E38" s="9" t="n"/>
-      <c r="L38" s="9" t="n"/>
+      <c r="K38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="E39" s="9" t="n"/>
-      <c r="L39" s="9" t="n"/>
+      <c r="K39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="E40" s="9" t="n"/>
-      <c r="L40" s="9" t="n"/>
+      <c r="K40" s="9" t="n"/>
     </row>
     <row r="41">
       <c r="E41" s="9" t="n"/>
-      <c r="L41" s="9" t="n"/>
+      <c r="K41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="E42" s="9" t="n"/>
-      <c r="L42" s="9" t="n"/>
+      <c r="K42" s="9" t="n"/>
     </row>
     <row r="43">
       <c r="E43" s="9" t="n"/>
-      <c r="L43" s="9" t="n"/>
+      <c r="K43" s="9" t="n"/>
     </row>
     <row r="44">
       <c r="E44" s="9" t="n"/>
-      <c r="L44" s="9" t="n"/>
+      <c r="K44" s="9" t="n"/>
     </row>
     <row r="45">
       <c r="E45" s="9" t="n"/>
-      <c r="L45" s="9" t="n"/>
+      <c r="K45" s="9" t="n"/>
     </row>
     <row r="46">
       <c r="E46" s="9" t="n"/>
-      <c r="L46" s="9" t="n"/>
+      <c r="K46" s="9" t="n"/>
     </row>
     <row r="47">
       <c r="E47" s="9" t="n"/>
-      <c r="L47" s="9" t="n"/>
+      <c r="K47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="E48" s="9" t="n"/>
-      <c r="L48" s="9" t="n"/>
+      <c r="K48" s="9" t="n"/>
     </row>
     <row r="49">
       <c r="E49" s="9" t="n"/>
-      <c r="L49" s="9" t="n"/>
+      <c r="K49" s="9" t="n"/>
     </row>
     <row r="50">
       <c r="E50" s="9" t="n"/>
-      <c r="L50" s="9" t="n"/>
+      <c r="K50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="E51" s="9" t="n"/>
-      <c r="L51" s="9" t="n"/>
+      <c r="K51" s="9" t="n"/>
     </row>
     <row r="52">
       <c r="E52" s="9" t="n"/>
-      <c r="L52" s="9" t="n"/>
+      <c r="K52" s="9" t="n"/>
     </row>
     <row r="53">
       <c r="E53" s="9" t="n"/>
-      <c r="L53" s="9" t="n"/>
+      <c r="K53" s="9" t="n"/>
     </row>
     <row r="54">
       <c r="E54" s="9" t="n"/>
-      <c r="L54" s="9" t="n"/>
+      <c r="K54" s="9" t="n"/>
     </row>
     <row r="55">
       <c r="E55" s="9" t="n"/>
-      <c r="L55" s="9" t="n"/>
+      <c r="K55" s="9" t="n"/>
     </row>
     <row r="56">
       <c r="E56" s="9" t="n"/>
-      <c r="L56" s="9" t="n"/>
+      <c r="K56" s="9" t="n"/>
     </row>
     <row r="57">
       <c r="E57" s="9" t="n"/>
-      <c r="L57" s="9" t="n"/>
+      <c r="K57" s="9" t="n"/>
     </row>
     <row r="58">
       <c r="E58" s="9" t="n"/>
-      <c r="L58" s="9" t="n"/>
+      <c r="K58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="E59" s="9" t="n"/>
-      <c r="L59" s="9" t="n"/>
+      <c r="K59" s="9" t="n"/>
     </row>
     <row r="60">
       <c r="E60" s="9" t="n"/>
-      <c r="L60" s="9" t="n"/>
+      <c r="K60" s="9" t="n"/>
     </row>
     <row r="61">
       <c r="E61" s="9" t="n"/>
-      <c r="L61" s="9" t="n"/>
+      <c r="K61" s="9" t="n"/>
     </row>
     <row r="62">
       <c r="E62" s="9" t="n"/>
-      <c r="L62" s="9" t="n"/>
+      <c r="K62" s="9" t="n"/>
     </row>
     <row r="63">
       <c r="E63" s="9" t="n"/>
-      <c r="L63" s="9" t="n"/>
+      <c r="K63" s="9" t="n"/>
     </row>
     <row r="64">
       <c r="E64" s="9" t="n"/>
-      <c r="L64" s="9" t="n"/>
+      <c r="K64" s="9" t="n"/>
     </row>
     <row r="65">
       <c r="E65" s="9" t="n"/>
-      <c r="L65" s="9" t="n"/>
+      <c r="K65" s="9" t="n"/>
     </row>
     <row r="66">
       <c r="E66" s="9" t="n"/>
-      <c r="L66" s="9" t="n"/>
+      <c r="K66" s="9" t="n"/>
     </row>
     <row r="67">
       <c r="E67" s="9" t="n"/>
-      <c r="L67" s="9" t="n"/>
+      <c r="K67" s="9" t="n"/>
     </row>
     <row r="68">
       <c r="E68" s="9" t="n"/>
-      <c r="L68" s="9" t="n"/>
+      <c r="K68" s="9" t="n"/>
     </row>
     <row r="69">
       <c r="E69" s="9" t="n"/>
-      <c r="L69" s="9" t="n"/>
+      <c r="K69" s="9" t="n"/>
     </row>
     <row r="70">
       <c r="E70" s="9" t="n"/>
-      <c r="L70" s="9" t="n"/>
+      <c r="K70" s="9" t="n"/>
     </row>
     <row r="71">
       <c r="E71" s="9" t="n"/>
-      <c r="L71" s="9" t="n"/>
+      <c r="K71" s="9" t="n"/>
     </row>
     <row r="72">
       <c r="E72" s="9" t="n"/>
-      <c r="L72" s="9" t="n"/>
+      <c r="K72" s="9" t="n"/>
     </row>
     <row r="73">
       <c r="E73" s="9" t="n"/>
-      <c r="L73" s="9" t="n"/>
+      <c r="K73" s="9" t="n"/>
     </row>
     <row r="74">
       <c r="E74" s="9" t="n"/>
-      <c r="L74" s="9" t="n"/>
+      <c r="K74" s="9" t="n"/>
     </row>
     <row r="75">
       <c r="E75" s="9" t="n"/>
-      <c r="L75" s="9" t="n"/>
+      <c r="K75" s="9" t="n"/>
     </row>
     <row r="76">
       <c r="E76" s="9" t="n"/>
-      <c r="L76" s="9" t="n"/>
+      <c r="K76" s="9" t="n"/>
     </row>
     <row r="77">
       <c r="E77" s="9" t="n"/>
-      <c r="L77" s="9" t="n"/>
+      <c r="K77" s="9" t="n"/>
     </row>
     <row r="78">
       <c r="E78" s="9" t="n"/>
-      <c r="L78" s="9" t="n"/>
+      <c r="K78" s="9" t="n"/>
     </row>
     <row r="79">
       <c r="E79" s="9" t="n"/>
-      <c r="L79" s="9" t="n"/>
+      <c r="K79" s="9" t="n"/>
     </row>
     <row r="80">
       <c r="E80" s="9" t="n"/>
-      <c r="L80" s="9" t="n"/>
+      <c r="K80" s="9" t="n"/>
     </row>
     <row r="81">
       <c r="E81" s="9" t="n"/>
-      <c r="L81" s="9" t="n"/>
+      <c r="K81" s="9" t="n"/>
     </row>
     <row r="82">
       <c r="E82" s="9" t="n"/>
-      <c r="L82" s="9" t="n"/>
+      <c r="K82" s="9" t="n"/>
     </row>
     <row r="83">
       <c r="E83" s="9" t="n"/>
-      <c r="L83" s="9" t="n"/>
+      <c r="K83" s="9" t="n"/>
     </row>
     <row r="84">
       <c r="E84" s="9" t="n"/>
-      <c r="L84" s="9" t="n"/>
+      <c r="K84" s="9" t="n"/>
     </row>
     <row r="85">
       <c r="E85" s="9" t="n"/>
-      <c r="L85" s="9" t="n"/>
+      <c r="K85" s="9" t="n"/>
     </row>
     <row r="86">
       <c r="E86" s="9" t="n"/>
-      <c r="L86" s="9" t="n"/>
+      <c r="K86" s="9" t="n"/>
     </row>
     <row r="87">
       <c r="E87" s="9" t="n"/>
-      <c r="L87" s="9" t="n"/>
+      <c r="K87" s="9" t="n"/>
     </row>
     <row r="88">
       <c r="E88" s="9" t="n"/>
-      <c r="L88" s="9" t="n"/>
+      <c r="K88" s="9" t="n"/>
     </row>
     <row r="89">
       <c r="E89" s="9" t="n"/>
-      <c r="L89" s="9" t="n"/>
+      <c r="K89" s="9" t="n"/>
     </row>
     <row r="90">
       <c r="E90" s="9" t="n"/>
-      <c r="L90" s="9" t="n"/>
+      <c r="K90" s="9" t="n"/>
     </row>
     <row r="91">
       <c r="E91" s="9" t="n"/>
-      <c r="L91" s="9" t="n"/>
+      <c r="K91" s="9" t="n"/>
     </row>
     <row r="92">
       <c r="E92" s="9" t="n"/>
-      <c r="L92" s="9" t="n"/>
+      <c r="K92" s="9" t="n"/>
     </row>
     <row r="93">
       <c r="E93" s="9" t="n"/>
-      <c r="L93" s="9" t="n"/>
+      <c r="K93" s="9" t="n"/>
     </row>
     <row r="94">
       <c r="E94" s="9" t="n"/>
-      <c r="L94" s="9" t="n"/>
+      <c r="K94" s="9" t="n"/>
     </row>
     <row r="95">
       <c r="E95" s="9" t="n"/>
-      <c r="L95" s="9" t="n"/>
+      <c r="K95" s="9" t="n"/>
     </row>
     <row r="96">
       <c r="E96" s="9" t="n"/>
-      <c r="L96" s="9" t="n"/>
+      <c r="K96" s="9" t="n"/>
     </row>
     <row r="97">
       <c r="E97" s="9" t="n"/>
-      <c r="L97" s="9" t="n"/>
+      <c r="K97" s="9" t="n"/>
     </row>
     <row r="98">
       <c r="E98" s="9" t="n"/>
-      <c r="L98" s="9" t="n"/>
+      <c r="K98" s="9" t="n"/>
     </row>
     <row r="99">
       <c r="E99" s="9" t="n"/>
-      <c r="L99" s="9" t="n"/>
+      <c r="K99" s="9" t="n"/>
     </row>
     <row r="100">
       <c r="E100" s="9" t="n"/>
-      <c r="L100" s="9" t="n"/>
+      <c r="K100" s="9" t="n"/>
     </row>
     <row r="101">
       <c r="E101" s="9" t="n"/>
-      <c r="L101" s="9" t="n"/>
+      <c r="K101" s="9" t="n"/>
     </row>
     <row r="102">
       <c r="E102" s="9" t="n"/>
-      <c r="L102" s="9" t="n"/>
+      <c r="K102" s="9" t="n"/>
     </row>
     <row r="103">
       <c r="E103" s="9" t="n"/>
-      <c r="L103" s="9" t="n"/>
+      <c r="K103" s="9" t="n"/>
     </row>
     <row r="104">
       <c r="E104" s="9" t="n"/>
-      <c r="L104" s="9" t="n"/>
+      <c r="K104" s="9" t="n"/>
     </row>
     <row r="105">
       <c r="E105" s="9" t="n"/>
-      <c r="L105" s="9" t="n"/>
+      <c r="K105" s="9" t="n"/>
     </row>
     <row r="106">
       <c r="E106" s="9" t="n"/>
-      <c r="L106" s="9" t="n"/>
+      <c r="K106" s="9" t="n"/>
     </row>
     <row r="107">
       <c r="E107" s="9" t="n"/>
-      <c r="L107" s="9" t="n"/>
+      <c r="K107" s="9" t="n"/>
     </row>
     <row r="108">
       <c r="E108" s="9" t="n"/>
-      <c r="L108" s="9" t="n"/>
+      <c r="K108" s="9" t="n"/>
     </row>
     <row r="109">
       <c r="E109" s="9" t="n"/>
-      <c r="L109" s="9" t="n"/>
+      <c r="K109" s="9" t="n"/>
     </row>
     <row r="110">
       <c r="E110" s="9" t="n"/>
-      <c r="L110" s="9" t="n"/>
+      <c r="K110" s="9" t="n"/>
     </row>
     <row r="111">
       <c r="E111" s="9" t="n"/>
-      <c r="L111" s="9" t="n"/>
+      <c r="K111" s="9" t="n"/>
     </row>
     <row r="112">
       <c r="E112" s="9" t="n"/>
-      <c r="L112" s="9" t="n"/>
+      <c r="K112" s="9" t="n"/>
     </row>
     <row r="113">
       <c r="E113" s="9" t="n"/>
-      <c r="L113" s="9" t="n"/>
+      <c r="K113" s="9" t="n"/>
     </row>
     <row r="114">
       <c r="E114" s="9" t="n"/>
-      <c r="L114" s="9" t="n"/>
+      <c r="K114" s="9" t="n"/>
     </row>
     <row r="115">
       <c r="E115" s="9" t="n"/>
-      <c r="L115" s="9" t="n"/>
+      <c r="K115" s="9" t="n"/>
     </row>
     <row r="116">
       <c r="E116" s="9" t="n"/>
-      <c r="L116" s="9" t="n"/>
+      <c r="K116" s="9" t="n"/>
     </row>
     <row r="117">
       <c r="E117" s="9" t="n"/>
-      <c r="L117" s="9" t="n"/>
+      <c r="K117" s="9" t="n"/>
     </row>
     <row r="118">
       <c r="E118" s="9" t="n"/>
-      <c r="L118" s="9" t="n"/>
+      <c r="K118" s="9" t="n"/>
     </row>
     <row r="119">
       <c r="E119" s="9" t="n"/>
-      <c r="L119" s="9" t="n"/>
+      <c r="K119" s="9" t="n"/>
     </row>
     <row r="120">
       <c r="E120" s="9" t="n"/>
-      <c r="L120" s="9" t="n"/>
+      <c r="K120" s="9" t="n"/>
     </row>
     <row r="121">
       <c r="E121" s="9" t="n"/>
-      <c r="L121" s="9" t="n"/>
+      <c r="K121" s="9" t="n"/>
     </row>
     <row r="122">
       <c r="E122" s="9" t="n"/>
-      <c r="L122" s="9" t="n"/>
+      <c r="K122" s="9" t="n"/>
     </row>
     <row r="123">
       <c r="E123" s="9" t="n"/>
-      <c r="L123" s="9" t="n"/>
+      <c r="K123" s="9" t="n"/>
     </row>
     <row r="124">
       <c r="E124" s="9" t="n"/>
-      <c r="L124" s="9" t="n"/>
+      <c r="K124" s="9" t="n"/>
     </row>
     <row r="125">
       <c r="E125" s="9" t="n"/>
-      <c r="L125" s="9" t="n"/>
+      <c r="K125" s="9" t="n"/>
     </row>
     <row r="126">
       <c r="E126" s="9" t="n"/>
-      <c r="L126" s="9" t="n"/>
+      <c r="K126" s="9" t="n"/>
     </row>
     <row r="127">
       <c r="E127" s="9" t="n"/>
-      <c r="L127" s="9" t="n"/>
+      <c r="K127" s="9" t="n"/>
     </row>
     <row r="128">
       <c r="E128" s="9" t="n"/>
-      <c r="L128" s="9" t="n"/>
+      <c r="K128" s="9" t="n"/>
     </row>
     <row r="129">
       <c r="E129" s="9" t="n"/>
-      <c r="L129" s="9" t="n"/>
+      <c r="K129" s="9" t="n"/>
     </row>
     <row r="130">
       <c r="E130" s="9" t="n"/>
-      <c r="L130" s="9" t="n"/>
+      <c r="K130" s="9" t="n"/>
     </row>
     <row r="131">
       <c r="E131" s="9" t="n"/>
-      <c r="L131" s="9" t="n"/>
+      <c r="K131" s="9" t="n"/>
     </row>
     <row r="132">
       <c r="E132" s="9" t="n"/>
-      <c r="L132" s="9" t="n"/>
+      <c r="K132" s="9" t="n"/>
     </row>
     <row r="133">
       <c r="E133" s="9" t="n"/>
-      <c r="L133" s="9" t="n"/>
+      <c r="K133" s="9" t="n"/>
     </row>
     <row r="134">
       <c r="E134" s="9" t="n"/>
-      <c r="L134" s="9" t="n"/>
+      <c r="K134" s="9" t="n"/>
     </row>
     <row r="135">
       <c r="E135" s="9" t="n"/>
-      <c r="L135" s="9" t="n"/>
+      <c r="K135" s="9" t="n"/>
     </row>
     <row r="136">
       <c r="E136" s="9" t="n"/>
-      <c r="L136" s="9" t="n"/>
+      <c r="K136" s="9" t="n"/>
     </row>
     <row r="137">
       <c r="E137" s="9" t="n"/>
-      <c r="L137" s="9" t="n"/>
+      <c r="K137" s="9" t="n"/>
     </row>
     <row r="138">
       <c r="E138" s="9" t="n"/>
-      <c r="L138" s="9" t="n"/>
+      <c r="K138" s="9" t="n"/>
     </row>
     <row r="139">
       <c r="E139" s="9" t="n"/>
-      <c r="L139" s="9" t="n"/>
+      <c r="K139" s="9" t="n"/>
     </row>
     <row r="140">
       <c r="E140" s="9" t="n"/>
-      <c r="L140" s="9" t="n"/>
+      <c r="K140" s="9" t="n"/>
     </row>
     <row r="141">
       <c r="E141" s="9" t="n"/>
-      <c r="L141" s="9" t="n"/>
+      <c r="K141" s="9" t="n"/>
     </row>
     <row r="142">
       <c r="E142" s="9" t="n"/>
-      <c r="L142" s="9" t="n"/>
+      <c r="K142" s="9" t="n"/>
     </row>
     <row r="143">
       <c r="E143" s="9" t="n"/>
-      <c r="L143" s="9" t="n"/>
+      <c r="K143" s="9" t="n"/>
     </row>
     <row r="144">
       <c r="E144" s="9" t="n"/>
-      <c r="L144" s="9" t="n"/>
+      <c r="K144" s="9" t="n"/>
     </row>
     <row r="145">
       <c r="E145" s="9" t="n"/>
-      <c r="L145" s="9" t="n"/>
+      <c r="K145" s="9" t="n"/>
     </row>
     <row r="146">
       <c r="E146" s="9" t="n"/>
-      <c r="L146" s="9" t="n"/>
+      <c r="K146" s="9" t="n"/>
     </row>
     <row r="147">
       <c r="E147" s="9" t="n"/>
-      <c r="L147" s="9" t="n"/>
+      <c r="K147" s="9" t="n"/>
     </row>
     <row r="148">
       <c r="E148" s="9" t="n"/>
-      <c r="L148" s="9" t="n"/>
+      <c r="K148" s="9" t="n"/>
     </row>
     <row r="149">
       <c r="E149" s="9" t="n"/>
-      <c r="L149" s="9" t="n"/>
+      <c r="K149" s="9" t="n"/>
     </row>
     <row r="150">
       <c r="E150" s="9" t="n"/>
-      <c r="L150" s="9" t="n"/>
+      <c r="K150" s="9" t="n"/>
     </row>
     <row r="151">
       <c r="E151" s="9" t="n"/>
-      <c r="L151" s="9" t="n"/>
+      <c r="K151" s="9" t="n"/>
     </row>
     <row r="152">
       <c r="E152" s="9" t="n"/>
-      <c r="L152" s="9" t="n"/>
+      <c r="K152" s="9" t="n"/>
     </row>
     <row r="153">
       <c r="E153" s="9" t="n"/>
-      <c r="L153" s="9" t="n"/>
+      <c r="K153" s="9" t="n"/>
     </row>
     <row r="154">
       <c r="E154" s="9" t="n"/>
-      <c r="L154" s="9" t="n"/>
+      <c r="K154" s="9" t="n"/>
     </row>
     <row r="155">
       <c r="E155" s="9" t="n"/>
-      <c r="L155" s="9" t="n"/>
+      <c r="K155" s="9" t="n"/>
     </row>
     <row r="156">
       <c r="E156" s="9" t="n"/>
-      <c r="L156" s="9" t="n"/>
+      <c r="K156" s="9" t="n"/>
     </row>
     <row r="157">
       <c r="E157" s="9" t="n"/>
-      <c r="L157" s="9" t="n"/>
+      <c r="K157" s="9" t="n"/>
     </row>
     <row r="158">
       <c r="E158" s="9" t="n"/>
-      <c r="L158" s="9" t="n"/>
+      <c r="K158" s="9" t="n"/>
     </row>
     <row r="159">
       <c r="E159" s="9" t="n"/>
-      <c r="L159" s="9" t="n"/>
+      <c r="K159" s="9" t="n"/>
     </row>
     <row r="160">
       <c r="E160" s="9" t="n"/>
-      <c r="L160" s="9" t="n"/>
+      <c r="K160" s="9" t="n"/>
     </row>
     <row r="161">
       <c r="E161" s="9" t="n"/>
-      <c r="L161" s="9" t="n"/>
+      <c r="K161" s="9" t="n"/>
     </row>
     <row r="162">
       <c r="E162" s="9" t="n"/>
-      <c r="L162" s="9" t="n"/>
+      <c r="K162" s="9" t="n"/>
     </row>
     <row r="163">
       <c r="E163" s="9" t="n"/>
-      <c r="L163" s="9" t="n"/>
+      <c r="K163" s="9" t="n"/>
     </row>
     <row r="164">
       <c r="E164" s="9" t="n"/>
-      <c r="L164" s="9" t="n"/>
+      <c r="K164" s="9" t="n"/>
     </row>
     <row r="165">
       <c r="E165" s="9" t="n"/>
-      <c r="L165" s="9" t="n"/>
+      <c r="K165" s="9" t="n"/>
     </row>
     <row r="166">
       <c r="E166" s="9" t="n"/>
-      <c r="L166" s="9" t="n"/>
+      <c r="K166" s="9" t="n"/>
     </row>
     <row r="167">
       <c r="E167" s="9" t="n"/>
-      <c r="L167" s="9" t="n"/>
+      <c r="K167" s="9" t="n"/>
     </row>
     <row r="168">
       <c r="E168" s="9" t="n"/>
-      <c r="L168" s="9" t="n"/>
+      <c r="K168" s="9" t="n"/>
     </row>
     <row r="169">
       <c r="E169" s="9" t="n"/>
-      <c r="L169" s="9" t="n"/>
+      <c r="K169" s="9" t="n"/>
     </row>
     <row r="170">
       <c r="E170" s="9" t="n"/>
-      <c r="L170" s="9" t="n"/>
+      <c r="K170" s="9" t="n"/>
     </row>
     <row r="171">
       <c r="E171" s="9" t="n"/>
-      <c r="L171" s="9" t="n"/>
+      <c r="K171" s="9" t="n"/>
     </row>
     <row r="172">
       <c r="E172" s="9" t="n"/>
-      <c r="L172" s="9" t="n"/>
+      <c r="K172" s="9" t="n"/>
     </row>
     <row r="173">
       <c r="E173" s="9" t="n"/>
-      <c r="L173" s="9" t="n"/>
+      <c r="K173" s="9" t="n"/>
     </row>
     <row r="174">
       <c r="E174" s="9" t="n"/>
-      <c r="L174" s="9" t="n"/>
+      <c r="K174" s="9" t="n"/>
     </row>
     <row r="175">
       <c r="E175" s="9" t="n"/>
-      <c r="L175" s="9" t="n"/>
+      <c r="K175" s="9" t="n"/>
     </row>
     <row r="176">
       <c r="E176" s="9" t="n"/>
-      <c r="L176" s="9" t="n"/>
+      <c r="K176" s="9" t="n"/>
     </row>
     <row r="177">
       <c r="E177" s="9" t="n"/>
-      <c r="L177" s="9" t="n"/>
+      <c r="K177" s="9" t="n"/>
     </row>
     <row r="178">
       <c r="E178" s="9" t="n"/>
-      <c r="L178" s="9" t="n"/>
+      <c r="K178" s="9" t="n"/>
     </row>
     <row r="179">
       <c r="E179" s="9" t="n"/>
-      <c r="L179" s="9" t="n"/>
+      <c r="K179" s="9" t="n"/>
     </row>
     <row r="180">
       <c r="E180" s="9" t="n"/>
-      <c r="L180" s="9" t="n"/>
+      <c r="K180" s="9" t="n"/>
     </row>
     <row r="181">
       <c r="E181" s="9" t="n"/>
-      <c r="L181" s="9" t="n"/>
+      <c r="K181" s="9" t="n"/>
     </row>
     <row r="182">
       <c r="E182" s="9" t="n"/>
-      <c r="L182" s="9" t="n"/>
+      <c r="K182" s="9" t="n"/>
     </row>
     <row r="183">
       <c r="E183" s="9" t="n"/>
-      <c r="L183" s="9" t="n"/>
+      <c r="K183" s="9" t="n"/>
     </row>
     <row r="184">
       <c r="E184" s="9" t="n"/>
-      <c r="L184" s="9" t="n"/>
+      <c r="K184" s="9" t="n"/>
     </row>
     <row r="185">
       <c r="E185" s="9" t="n"/>
-      <c r="L185" s="9" t="n"/>
+      <c r="K185" s="9" t="n"/>
     </row>
     <row r="186">
       <c r="E186" s="9" t="n"/>
-      <c r="L186" s="9" t="n"/>
+      <c r="K186" s="9" t="n"/>
     </row>
     <row r="187">
       <c r="E187" s="9" t="n"/>
-      <c r="L187" s="9" t="n"/>
+      <c r="K187" s="9" t="n"/>
     </row>
     <row r="188">
       <c r="E188" s="9" t="n"/>
-      <c r="L188" s="9" t="n"/>
+      <c r="K188" s="9" t="n"/>
     </row>
     <row r="189">
       <c r="E189" s="9" t="n"/>
-      <c r="L189" s="9" t="n"/>
+      <c r="K189" s="9" t="n"/>
     </row>
     <row r="190">
       <c r="E190" s="9" t="n"/>
-      <c r="L190" s="9" t="n"/>
+      <c r="K190" s="9" t="n"/>
     </row>
     <row r="191">
       <c r="E191" s="9" t="n"/>
-      <c r="L191" s="9" t="n"/>
+      <c r="K191" s="9" t="n"/>
     </row>
     <row r="192">
       <c r="E192" s="9" t="n"/>
-      <c r="L192" s="9" t="n"/>
+      <c r="K192" s="9" t="n"/>
     </row>
     <row r="193">
       <c r="E193" s="9" t="n"/>
-      <c r="L193" s="9" t="n"/>
+      <c r="K193" s="9" t="n"/>
     </row>
     <row r="194">
       <c r="E194" s="9" t="n"/>
-      <c r="L194" s="9" t="n"/>
+      <c r="K194" s="9" t="n"/>
     </row>
     <row r="195">
       <c r="E195" s="9" t="n"/>
-      <c r="L195" s="9" t="n"/>
+      <c r="K195" s="9" t="n"/>
     </row>
     <row r="196">
       <c r="E196" s="9" t="n"/>
-      <c r="L196" s="9" t="n"/>
+      <c r="K196" s="9" t="n"/>
     </row>
     <row r="197">
       <c r="E197" s="9" t="n"/>
-      <c r="L197" s="9" t="n"/>
+      <c r="K197" s="9" t="n"/>
     </row>
     <row r="198">
       <c r="E198" s="9" t="n"/>
-      <c r="L198" s="9" t="n"/>
+      <c r="K198" s="9" t="n"/>
     </row>
     <row r="199">
       <c r="E199" s="9" t="n"/>
-      <c r="L199" s="9" t="n"/>
+      <c r="K199" s="9" t="n"/>
     </row>
     <row r="200">
       <c r="E200" s="9" t="n"/>
-      <c r="L200" s="9" t="n"/>
+      <c r="K200" s="9" t="n"/>
     </row>
     <row r="201">
       <c r="E201" s="9" t="n"/>
-      <c r="L201" s="9" t="n"/>
+      <c r="K201" s="9" t="n"/>
     </row>
     <row r="202">
       <c r="E202" s="9" t="n"/>
-      <c r="L202" s="9" t="n"/>
+      <c r="K202" s="9" t="n"/>
     </row>
     <row r="203">
       <c r="E203" s="9" t="n"/>
-      <c r="L203" s="9" t="n"/>
+      <c r="K203" s="9" t="n"/>
     </row>
     <row r="204">
       <c r="E204" s="9" t="n"/>
-      <c r="L204" s="9" t="n"/>
+      <c r="K204" s="9" t="n"/>
     </row>
     <row r="205">
       <c r="E205" s="9" t="n"/>
-      <c r="L205" s="9" t="n"/>
+      <c r="K205" s="9" t="n"/>
     </row>
     <row r="206">
       <c r="E206" s="9" t="n"/>
-      <c r="L206" s="9" t="n"/>
+      <c r="K206" s="9" t="n"/>
     </row>
     <row r="207">
       <c r="E207" s="9" t="n"/>
-      <c r="L207" s="9" t="n"/>
+      <c r="K207" s="9" t="n"/>
     </row>
     <row r="208">
       <c r="E208" s="9" t="n"/>
-      <c r="L208" s="9" t="n"/>
+      <c r="K208" s="9" t="n"/>
     </row>
     <row r="209">
       <c r="E209" s="9" t="n"/>
-      <c r="L209" s="9" t="n"/>
+      <c r="K209" s="9" t="n"/>
     </row>
     <row r="210">
       <c r="E210" s="9" t="n"/>
-      <c r="L210" s="9" t="n"/>
+      <c r="K210" s="9" t="n"/>
     </row>
     <row r="211">
       <c r="E211" s="9" t="n"/>
-      <c r="L211" s="9" t="n"/>
+      <c r="K211" s="9" t="n"/>
     </row>
     <row r="212">
       <c r="E212" s="9" t="n"/>
-      <c r="L212" s="9" t="n"/>
+      <c r="K212" s="9" t="n"/>
     </row>
     <row r="213">
       <c r="E213" s="9" t="n"/>
-      <c r="L213" s="9" t="n"/>
+      <c r="K213" s="9" t="n"/>
     </row>
     <row r="214">
       <c r="E214" s="9" t="n"/>
-      <c r="L214" s="9" t="n"/>
+      <c r="K214" s="9" t="n"/>
     </row>
     <row r="215">
       <c r="E215" s="9" t="n"/>
-      <c r="L215" s="9" t="n"/>
+      <c r="K215" s="9" t="n"/>
     </row>
     <row r="216">
       <c r="E216" s="9" t="n"/>
-      <c r="L216" s="9" t="n"/>
+      <c r="K216" s="9" t="n"/>
     </row>
     <row r="217">
       <c r="E217" s="9" t="n"/>
-      <c r="L217" s="9" t="n"/>
+      <c r="K217" s="9" t="n"/>
     </row>
     <row r="218">
       <c r="E218" s="9" t="n"/>
-      <c r="L218" s="9" t="n"/>
+      <c r="K218" s="9" t="n"/>
     </row>
     <row r="219">
       <c r="E219" s="9" t="n"/>
-      <c r="L219" s="9" t="n"/>
+      <c r="K219" s="9" t="n"/>
     </row>
     <row r="220">
       <c r="E220" s="9" t="n"/>
-      <c r="L220" s="9" t="n"/>
+      <c r="K220" s="9" t="n"/>
     </row>
     <row r="221">
       <c r="E221" s="9" t="n"/>
-      <c r="L221" s="9" t="n"/>
+      <c r="K221" s="9" t="n"/>
     </row>
     <row r="222">
       <c r="E222" s="9" t="n"/>
-      <c r="L222" s="9" t="n"/>
+      <c r="K222" s="9" t="n"/>
     </row>
     <row r="223">
       <c r="E223" s="9" t="n"/>
-      <c r="L223" s="9" t="n"/>
+      <c r="K223" s="9" t="n"/>
     </row>
     <row r="224">
       <c r="E224" s="9" t="n"/>
-      <c r="L224" s="9" t="n"/>
+      <c r="K224" s="9" t="n"/>
     </row>
     <row r="225">
       <c r="E225" s="9" t="n"/>
-      <c r="L225" s="9" t="n"/>
+      <c r="K225" s="9" t="n"/>
     </row>
     <row r="226">
       <c r="E226" s="9" t="n"/>
-      <c r="L226" s="9" t="n"/>
+      <c r="K226" s="9" t="n"/>
     </row>
     <row r="227">
       <c r="E227" s="9" t="n"/>
-      <c r="L227" s="9" t="n"/>
+      <c r="K227" s="9" t="n"/>
     </row>
     <row r="228">
       <c r="E228" s="9" t="n"/>
-      <c r="L228" s="9" t="n"/>
+      <c r="K228" s="9" t="n"/>
     </row>
     <row r="229">
       <c r="E229" s="9" t="n"/>
-      <c r="L229" s="9" t="n"/>
+      <c r="K229" s="9" t="n"/>
     </row>
     <row r="230">
       <c r="E230" s="9" t="n"/>
-      <c r="L230" s="9" t="n"/>
+      <c r="K230" s="9" t="n"/>
     </row>
     <row r="231">
       <c r="E231" s="9" t="n"/>
-      <c r="L231" s="9" t="n"/>
+      <c r="K231" s="9" t="n"/>
     </row>
     <row r="232">
       <c r="E232" s="9" t="n"/>
-      <c r="L232" s="9" t="n"/>
+      <c r="K232" s="9" t="n"/>
     </row>
     <row r="233">
       <c r="E233" s="9" t="n"/>
-      <c r="L233" s="9" t="n"/>
+      <c r="K233" s="9" t="n"/>
     </row>
     <row r="234">
       <c r="E234" s="9" t="n"/>
-      <c r="L234" s="9" t="n"/>
+      <c r="K234" s="9" t="n"/>
     </row>
     <row r="235">
       <c r="E235" s="9" t="n"/>
-      <c r="L235" s="9" t="n"/>
+      <c r="K235" s="9" t="n"/>
     </row>
     <row r="236">
       <c r="E236" s="9" t="n"/>
-      <c r="L236" s="9" t="n"/>
+      <c r="K236" s="9" t="n"/>
     </row>
     <row r="237">
       <c r="E237" s="9" t="n"/>
-      <c r="L237" s="9" t="n"/>
+      <c r="K237" s="9" t="n"/>
     </row>
     <row r="238">
       <c r="E238" s="9" t="n"/>
-      <c r="L238" s="9" t="n"/>
+      <c r="K238" s="9" t="n"/>
     </row>
     <row r="239">
       <c r="E239" s="9" t="n"/>
-      <c r="L239" s="9" t="n"/>
+      <c r="K239" s="9" t="n"/>
     </row>
     <row r="240">
       <c r="E240" s="9" t="n"/>
-      <c r="L240" s="9" t="n"/>
+      <c r="K240" s="9" t="n"/>
     </row>
     <row r="241">
       <c r="E241" s="9" t="n"/>
-      <c r="L241" s="9" t="n"/>
+      <c r="K241" s="9" t="n"/>
     </row>
     <row r="242">
       <c r="E242" s="9" t="n"/>
-      <c r="L242" s="9" t="n"/>
+      <c r="K242" s="9" t="n"/>
     </row>
     <row r="243">
       <c r="E243" s="9" t="n"/>
-      <c r="L243" s="9" t="n"/>
+      <c r="K243" s="9" t="n"/>
     </row>
     <row r="244">
       <c r="E244" s="9" t="n"/>
-      <c r="L244" s="9" t="n"/>
+      <c r="K244" s="9" t="n"/>
     </row>
     <row r="245">
       <c r="E245" s="9" t="n"/>
-      <c r="L245" s="9" t="n"/>
+      <c r="K245" s="9" t="n"/>
     </row>
     <row r="246">
       <c r="E246" s="9" t="n"/>
-      <c r="L246" s="9" t="n"/>
+      <c r="K246" s="9" t="n"/>
     </row>
     <row r="247">
       <c r="E247" s="9" t="n"/>
-      <c r="L247" s="9" t="n"/>
+      <c r="K247" s="9" t="n"/>
     </row>
     <row r="248">
       <c r="E248" s="9" t="n"/>
-      <c r="L248" s="9" t="n"/>
+      <c r="K248" s="9" t="n"/>
     </row>
     <row r="249">
       <c r="E249" s="9" t="n"/>
-      <c r="L249" s="9" t="n"/>
+      <c r="K249" s="9" t="n"/>
     </row>
     <row r="250">
       <c r="E250" s="9" t="n"/>
-      <c r="L250" s="9" t="n"/>
+      <c r="K250" s="9" t="n"/>
     </row>
     <row r="251">
       <c r="E251" s="9" t="n"/>
-      <c r="L251" s="9" t="n"/>
+      <c r="K251" s="9" t="n"/>
     </row>
     <row r="252">
       <c r="E252" s="9" t="n"/>
-      <c r="L252" s="9" t="n"/>
+      <c r="K252" s="9" t="n"/>
     </row>
     <row r="253">
       <c r="E253" s="9" t="n"/>
-      <c r="L253" s="9" t="n"/>
+      <c r="K253" s="9" t="n"/>
     </row>
     <row r="254">
       <c r="E254" s="9" t="n"/>
-      <c r="L254" s="9" t="n"/>
+      <c r="K254" s="9" t="n"/>
     </row>
     <row r="255">
       <c r="E255" s="9" t="n"/>
-      <c r="L255" s="9" t="n"/>
+      <c r="K255" s="9" t="n"/>
     </row>
     <row r="256">
       <c r="E256" s="9" t="n"/>
-      <c r="L256" s="9" t="n"/>
+      <c r="K256" s="9" t="n"/>
     </row>
     <row r="257">
       <c r="E257" s="9" t="n"/>
-      <c r="L257" s="9" t="n"/>
+      <c r="K257" s="9" t="n"/>
     </row>
     <row r="258">
       <c r="E258" s="9" t="n"/>
-      <c r="L258" s="9" t="n"/>
+      <c r="K258" s="9" t="n"/>
     </row>
     <row r="259">
       <c r="E259" s="9" t="n"/>
-      <c r="L259" s="9" t="n"/>
+      <c r="K259" s="9" t="n"/>
     </row>
     <row r="260">
       <c r="E260" s="9" t="n"/>
-      <c r="L260" s="9" t="n"/>
+      <c r="K260" s="9" t="n"/>
     </row>
     <row r="261">
       <c r="E261" s="9" t="n"/>
-      <c r="L261" s="9" t="n"/>
+      <c r="K261" s="9" t="n"/>
     </row>
     <row r="262">
       <c r="E262" s="9" t="n"/>
-      <c r="L262" s="9" t="n"/>
+      <c r="K262" s="9" t="n"/>
     </row>
     <row r="263">
       <c r="E263" s="9" t="n"/>
-      <c r="L263" s="9" t="n"/>
+      <c r="K263" s="9" t="n"/>
     </row>
     <row r="264">
       <c r="E264" s="9" t="n"/>
-      <c r="L264" s="9" t="n"/>
+      <c r="K264" s="9" t="n"/>
     </row>
     <row r="265">
       <c r="E265" s="9" t="n"/>
-      <c r="L265" s="9" t="n"/>
+      <c r="K265" s="9" t="n"/>
     </row>
     <row r="266">
       <c r="E266" s="9" t="n"/>
-      <c r="L266" s="9" t="n"/>
+      <c r="K266" s="9" t="n"/>
     </row>
     <row r="267">
       <c r="E267" s="9" t="n"/>
-      <c r="L267" s="9" t="n"/>
+      <c r="K267" s="9" t="n"/>
     </row>
     <row r="268">
       <c r="E268" s="9" t="n"/>
-      <c r="L268" s="9" t="n"/>
+      <c r="K268" s="9" t="n"/>
     </row>
     <row r="269">
       <c r="E269" s="9" t="n"/>
-      <c r="L269" s="9" t="n"/>
+      <c r="K269" s="9" t="n"/>
     </row>
     <row r="270">
       <c r="E270" s="9" t="n"/>
-      <c r="L270" s="9" t="n"/>
+      <c r="K270" s="9" t="n"/>
     </row>
     <row r="271">
       <c r="E271" s="9" t="n"/>
-      <c r="L271" s="9" t="n"/>
+      <c r="K271" s="9" t="n"/>
     </row>
     <row r="272">
       <c r="E272" s="9" t="n"/>
-      <c r="L272" s="9" t="n"/>
+      <c r="K272" s="9" t="n"/>
     </row>
     <row r="273">
       <c r="E273" s="9" t="n"/>
-      <c r="L273" s="9" t="n"/>
+      <c r="K273" s="9" t="n"/>
     </row>
     <row r="274">
       <c r="E274" s="9" t="n"/>
-      <c r="L274" s="9" t="n"/>
+      <c r="K274" s="9" t="n"/>
     </row>
     <row r="275">
       <c r="E275" s="9" t="n"/>
-      <c r="L275" s="9" t="n"/>
+      <c r="K275" s="9" t="n"/>
     </row>
     <row r="276">
       <c r="E276" s="9" t="n"/>
-      <c r="L276" s="9" t="n"/>
+      <c r="K276" s="9" t="n"/>
     </row>
     <row r="277">
       <c r="E277" s="9" t="n"/>
-      <c r="L277" s="9" t="n"/>
+      <c r="K277" s="9" t="n"/>
     </row>
     <row r="278">
       <c r="E278" s="9" t="n"/>
-      <c r="L278" s="9" t="n"/>
+      <c r="K278" s="9" t="n"/>
     </row>
     <row r="279">
       <c r="E279" s="9" t="n"/>
-      <c r="L279" s="9" t="n"/>
+      <c r="K279" s="9" t="n"/>
     </row>
     <row r="280">
       <c r="E280" s="9" t="n"/>
-      <c r="L280" s="9" t="n"/>
+      <c r="K280" s="9" t="n"/>
     </row>
     <row r="281">
       <c r="E281" s="9" t="n"/>
-      <c r="L281" s="9" t="n"/>
+      <c r="K281" s="9" t="n"/>
     </row>
     <row r="282">
       <c r="E282" s="9" t="n"/>
-      <c r="L282" s="9" t="n"/>
+      <c r="K282" s="9" t="n"/>
     </row>
     <row r="283">
       <c r="E283" s="9" t="n"/>
-      <c r="L283" s="9" t="n"/>
+      <c r="K283" s="9" t="n"/>
     </row>
     <row r="284">
       <c r="E284" s="9" t="n"/>
-      <c r="L284" s="9" t="n"/>
+      <c r="K284" s="9" t="n"/>
     </row>
     <row r="285">
       <c r="E285" s="9" t="n"/>
-      <c r="L285" s="9" t="n"/>
+      <c r="K285" s="9" t="n"/>
     </row>
     <row r="286">
       <c r="E286" s="9" t="n"/>
-      <c r="L286" s="9" t="n"/>
+      <c r="K286" s="9" t="n"/>
     </row>
     <row r="287">
       <c r="E287" s="9" t="n"/>
-      <c r="L287" s="9" t="n"/>
+      <c r="K287" s="9" t="n"/>
     </row>
     <row r="288">
       <c r="E288" s="9" t="n"/>
-      <c r="L288" s="9" t="n"/>
+      <c r="K288" s="9" t="n"/>
     </row>
     <row r="289">
       <c r="E289" s="9" t="n"/>
-      <c r="L289" s="9" t="n"/>
+      <c r="K289" s="9" t="n"/>
     </row>
     <row r="290">
       <c r="E290" s="9" t="n"/>
-      <c r="L290" s="9" t="n"/>
+      <c r="K290" s="9" t="n"/>
     </row>
     <row r="291">
       <c r="E291" s="9" t="n"/>
-      <c r="L291" s="9" t="n"/>
+      <c r="K291" s="9" t="n"/>
     </row>
     <row r="292">
       <c r="E292" s="9" t="n"/>
-      <c r="L292" s="9" t="n"/>
+      <c r="K292" s="9" t="n"/>
     </row>
     <row r="293">
       <c r="E293" s="9" t="n"/>
-      <c r="L293" s="9" t="n"/>
+      <c r="K293" s="9" t="n"/>
     </row>
     <row r="294">
       <c r="E294" s="9" t="n"/>
-      <c r="L294" s="9" t="n"/>
+      <c r="K294" s="9" t="n"/>
     </row>
     <row r="295">
       <c r="E295" s="9" t="n"/>
-      <c r="L295" s="9" t="n"/>
+      <c r="K295" s="9" t="n"/>
     </row>
     <row r="296">
       <c r="E296" s="9" t="n"/>
-      <c r="L296" s="9" t="n"/>
+      <c r="K296" s="9" t="n"/>
     </row>
     <row r="297">
       <c r="E297" s="9" t="n"/>
-      <c r="L297" s="9" t="n"/>
+      <c r="K297" s="9" t="n"/>
     </row>
     <row r="298">
       <c r="E298" s="9" t="n"/>
-      <c r="L298" s="9" t="n"/>
+      <c r="K298" s="9" t="n"/>
     </row>
     <row r="299">
       <c r="E299" s="9" t="n"/>
-      <c r="L299" s="9" t="n"/>
+      <c r="K299" s="9" t="n"/>
     </row>
     <row r="300">
       <c r="E300" s="9" t="n"/>
-      <c r="L300" s="9" t="n"/>
+      <c r="K300" s="9" t="n"/>
     </row>
     <row r="301">
       <c r="E301" s="9" t="n"/>
-      <c r="L301" s="9" t="n"/>
+      <c r="K301" s="9" t="n"/>
     </row>
     <row r="302">
       <c r="E302" s="9" t="n"/>
-      <c r="L302" s="9" t="n"/>
+      <c r="K302" s="9" t="n"/>
     </row>
     <row r="303">
       <c r="E303" s="9" t="n"/>
-      <c r="L303" s="9" t="n"/>
+      <c r="K303" s="9" t="n"/>
     </row>
     <row r="304">
       <c r="E304" s="9" t="n"/>
-      <c r="L304" s="9" t="n"/>
+      <c r="K304" s="9" t="n"/>
     </row>
     <row r="305">
       <c r="E305" s="9" t="n"/>
-      <c r="L305" s="9" t="n"/>
+      <c r="K305" s="9" t="n"/>
     </row>
     <row r="306">
       <c r="E306" s="9" t="n"/>
-      <c r="L306" s="9" t="n"/>
+      <c r="K306" s="9" t="n"/>
     </row>
     <row r="307">
       <c r="E307" s="9" t="n"/>
-      <c r="L307" s="9" t="n"/>
+      <c r="K307" s="9" t="n"/>
     </row>
     <row r="308">
       <c r="E308" s="9" t="n"/>
-      <c r="L308" s="9" t="n"/>
+      <c r="K308" s="9" t="n"/>
     </row>
     <row r="309">
       <c r="E309" s="9" t="n"/>
-      <c r="L309" s="9" t="n"/>
+      <c r="K309" s="9" t="n"/>
     </row>
     <row r="310">
       <c r="E310" s="9" t="n"/>
-      <c r="L310" s="9" t="n"/>
+      <c r="K310" s="9" t="n"/>
     </row>
     <row r="311">
       <c r="E311" s="9" t="n"/>
-      <c r="L311" s="9" t="n"/>
+      <c r="K311" s="9" t="n"/>
     </row>
     <row r="312">
       <c r="E312" s="9" t="n"/>
-      <c r="L312" s="9" t="n"/>
+      <c r="K312" s="9" t="n"/>
     </row>
     <row r="313">
       <c r="E313" s="9" t="n"/>
-      <c r="L313" s="9" t="n"/>
+      <c r="K313" s="9" t="n"/>
     </row>
     <row r="314">
       <c r="E314" s="9" t="n"/>
-      <c r="L314" s="9" t="n"/>
+      <c r="K314" s="9" t="n"/>
     </row>
     <row r="315">
       <c r="E315" s="9" t="n"/>
-      <c r="L315" s="9" t="n"/>
+      <c r="K315" s="9" t="n"/>
     </row>
     <row r="316">
       <c r="E316" s="9" t="n"/>
-      <c r="L316" s="9" t="n"/>
+      <c r="K316" s="9" t="n"/>
     </row>
     <row r="317">
       <c r="E317" s="9" t="n"/>
-      <c r="L317" s="9" t="n"/>
+      <c r="K317" s="9" t="n"/>
     </row>
     <row r="318">
       <c r="E318" s="9" t="n"/>
-      <c r="L318" s="9" t="n"/>
+      <c r="K318" s="9" t="n"/>
     </row>
     <row r="319">
       <c r="E319" s="9" t="n"/>
-      <c r="L319" s="9" t="n"/>
+      <c r="K319" s="9" t="n"/>
     </row>
     <row r="320">
       <c r="E320" s="9" t="n"/>
-      <c r="L320" s="9" t="n"/>
+      <c r="K320" s="9" t="n"/>
     </row>
     <row r="321">
       <c r="E321" s="9" t="n"/>
-      <c r="L321" s="9" t="n"/>
+      <c r="K321" s="9" t="n"/>
     </row>
     <row r="322">
       <c r="E322" s="9" t="n"/>
-      <c r="L322" s="9" t="n"/>
+      <c r="K322" s="9" t="n"/>
     </row>
     <row r="323">
       <c r="E323" s="9" t="n"/>
-      <c r="L323" s="9" t="n"/>
+      <c r="K323" s="9" t="n"/>
     </row>
     <row r="324">
       <c r="E324" s="9" t="n"/>
-      <c r="L324" s="9" t="n"/>
+      <c r="K324" s="9" t="n"/>
     </row>
     <row r="325">
       <c r="E325" s="9" t="n"/>
-      <c r="L325" s="9" t="n"/>
+      <c r="K325" s="9" t="n"/>
     </row>
     <row r="326">
       <c r="E326" s="9" t="n"/>
-      <c r="L326" s="9" t="n"/>
+      <c r="K326" s="9" t="n"/>
     </row>
     <row r="327">
       <c r="E327" s="9" t="n"/>
-      <c r="L327" s="9" t="n"/>
+      <c r="K327" s="9" t="n"/>
     </row>
     <row r="328">
       <c r="E328" s="9" t="n"/>
-      <c r="L328" s="9" t="n"/>
+      <c r="K328" s="9" t="n"/>
     </row>
     <row r="329">
       <c r="E329" s="9" t="n"/>
-      <c r="L329" s="9" t="n"/>
+      <c r="K329" s="9" t="n"/>
     </row>
     <row r="330">
       <c r="E330" s="9" t="n"/>
-      <c r="L330" s="9" t="n"/>
+      <c r="K330" s="9" t="n"/>
     </row>
     <row r="331">
       <c r="E331" s="9" t="n"/>
-      <c r="L331" s="9" t="n"/>
+      <c r="K331" s="9" t="n"/>
     </row>
     <row r="332">
       <c r="E332" s="9" t="n"/>
-      <c r="L332" s="9" t="n"/>
+      <c r="K332" s="9" t="n"/>
     </row>
     <row r="333">
       <c r="E333" s="9" t="n"/>
-      <c r="L333" s="9" t="n"/>
+      <c r="K333" s="9" t="n"/>
     </row>
     <row r="334">
       <c r="E334" s="9" t="n"/>
-      <c r="L334" s="9" t="n"/>
+      <c r="K334" s="9" t="n"/>
     </row>
     <row r="335">
       <c r="E335" s="9" t="n"/>
-      <c r="L335" s="9" t="n"/>
+      <c r="K335" s="9" t="n"/>
     </row>
     <row r="336">
       <c r="E336" s="9" t="n"/>
-      <c r="L336" s="9" t="n"/>
+      <c r="K336" s="9" t="n"/>
     </row>
     <row r="337">
       <c r="E337" s="9" t="n"/>
-      <c r="L337" s="9" t="n"/>
+      <c r="K337" s="9" t="n"/>
     </row>
     <row r="338">
       <c r="E338" s="9" t="n"/>
-      <c r="L338" s="9" t="n"/>
+      <c r="K338" s="9" t="n"/>
     </row>
     <row r="339">
       <c r="E339" s="9" t="n"/>
-      <c r="L339" s="9" t="n"/>
+      <c r="K339" s="9" t="n"/>
     </row>
     <row r="340">
       <c r="E340" s="9" t="n"/>
-      <c r="L340" s="9" t="n"/>
+      <c r="K340" s="9" t="n"/>
     </row>
     <row r="341">
       <c r="E341" s="9" t="n"/>
-      <c r="L341" s="9" t="n"/>
+      <c r="K341" s="9" t="n"/>
     </row>
     <row r="342">
       <c r="E342" s="9" t="n"/>
-      <c r="L342" s="9" t="n"/>
+      <c r="K342" s="9" t="n"/>
     </row>
     <row r="343">
       <c r="E343" s="9" t="n"/>
-      <c r="L343" s="9" t="n"/>
+      <c r="K343" s="9" t="n"/>
     </row>
     <row r="344">
       <c r="E344" s="9" t="n"/>
-      <c r="L344" s="9" t="n"/>
+      <c r="K344" s="9" t="n"/>
     </row>
     <row r="345">
       <c r="E345" s="9" t="n"/>
-      <c r="L345" s="9" t="n"/>
+      <c r="K345" s="9" t="n"/>
     </row>
     <row r="346">
       <c r="E346" s="9" t="n"/>
-      <c r="L346" s="9" t="n"/>
+      <c r="K346" s="9" t="n"/>
     </row>
     <row r="347">
       <c r="E347" s="9" t="n"/>
-      <c r="L347" s="9" t="n"/>
+      <c r="K347" s="9" t="n"/>
     </row>
     <row r="348">
       <c r="E348" s="9" t="n"/>
-      <c r="L348" s="9" t="n"/>
+      <c r="K348" s="9" t="n"/>
     </row>
     <row r="349">
       <c r="E349" s="9" t="n"/>
-      <c r="L349" s="9" t="n"/>
+      <c r="K349" s="9" t="n"/>
     </row>
     <row r="350">
       <c r="E350" s="9" t="n"/>
-      <c r="L350" s="9" t="n"/>
+      <c r="K350" s="9" t="n"/>
     </row>
     <row r="351">
       <c r="E351" s="9" t="n"/>
-      <c r="L351" s="9" t="n"/>
+      <c r="K351" s="9" t="n"/>
     </row>
     <row r="352">
       <c r="E352" s="9" t="n"/>
-      <c r="L352" s="9" t="n"/>
+      <c r="K352" s="9" t="n"/>
     </row>
     <row r="353">
       <c r="E353" s="9" t="n"/>
-      <c r="L353" s="9" t="n"/>
+      <c r="K353" s="9" t="n"/>
     </row>
     <row r="354">
       <c r="E354" s="9" t="n"/>
-      <c r="L354" s="9" t="n"/>
+      <c r="K354" s="9" t="n"/>
     </row>
     <row r="355">
       <c r="E355" s="9" t="n"/>
-      <c r="L355" s="9" t="n"/>
+      <c r="K355" s="9" t="n"/>
     </row>
     <row r="356">
       <c r="E356" s="9" t="n"/>
-      <c r="L356" s="9" t="n"/>
+      <c r="K356" s="9" t="n"/>
     </row>
     <row r="357">
       <c r="E357" s="9" t="n"/>
-      <c r="L357" s="9" t="n"/>
+      <c r="K357" s="9" t="n"/>
     </row>
     <row r="358">
       <c r="E358" s="9" t="n"/>
-      <c r="L358" s="9" t="n"/>
+      <c r="K358" s="9" t="n"/>
     </row>
     <row r="359">
       <c r="E359" s="9" t="n"/>
-      <c r="L359" s="9" t="n"/>
+      <c r="K359" s="9" t="n"/>
     </row>
     <row r="360">
       <c r="E360" s="9" t="n"/>
-      <c r="L360" s="9" t="n"/>
+      <c r="K360" s="9" t="n"/>
     </row>
     <row r="361">
       <c r="E361" s="9" t="n"/>
-      <c r="L361" s="9" t="n"/>
+      <c r="K361" s="9" t="n"/>
     </row>
     <row r="362">
       <c r="E362" s="9" t="n"/>
-      <c r="L362" s="9" t="n"/>
+      <c r="K362" s="9" t="n"/>
     </row>
     <row r="363">
       <c r="E363" s="9" t="n"/>
-      <c r="L363" s="9" t="n"/>
+      <c r="K363" s="9" t="n"/>
     </row>
     <row r="364">
       <c r="E364" s="9" t="n"/>
-      <c r="L364" s="9" t="n"/>
+      <c r="K364" s="9" t="n"/>
     </row>
     <row r="365">
       <c r="E365" s="9" t="n"/>
-      <c r="L365" s="9" t="n"/>
+      <c r="K365" s="9" t="n"/>
     </row>
     <row r="366">
       <c r="E366" s="9" t="n"/>
-      <c r="L366" s="9" t="n"/>
+      <c r="K366" s="9" t="n"/>
     </row>
     <row r="367">
       <c r="E367" s="9" t="n"/>
-      <c r="L367" s="9" t="n"/>
+      <c r="K367" s="9" t="n"/>
     </row>
     <row r="368">
       <c r="E368" s="9" t="n"/>
-      <c r="L368" s="9" t="n"/>
+      <c r="K368" s="9" t="n"/>
     </row>
     <row r="369">
       <c r="E369" s="9" t="n"/>
-      <c r="L369" s="9" t="n"/>
+      <c r="K369" s="9" t="n"/>
     </row>
     <row r="370">
       <c r="E370" s="9" t="n"/>
-      <c r="L370" s="9" t="n"/>
+      <c r="K370" s="9" t="n"/>
     </row>
     <row r="371">
       <c r="E371" s="9" t="n"/>
-      <c r="L371" s="9" t="n"/>
+      <c r="K371" s="9" t="n"/>
     </row>
     <row r="372">
       <c r="E372" s="9" t="n"/>
-      <c r="L372" s="9" t="n"/>
+      <c r="K372" s="9" t="n"/>
     </row>
     <row r="373">
       <c r="E373" s="9" t="n"/>
-      <c r="L373" s="9" t="n"/>
+      <c r="K373" s="9" t="n"/>
     </row>
     <row r="374">
       <c r="E374" s="9" t="n"/>
-      <c r="L374" s="9" t="n"/>
+      <c r="K374" s="9" t="n"/>
     </row>
     <row r="375">
       <c r="E375" s="9" t="n"/>
-      <c r="L375" s="9" t="n"/>
+      <c r="K375" s="9" t="n"/>
     </row>
     <row r="376">
       <c r="E376" s="9" t="n"/>
-      <c r="L376" s="9" t="n"/>
+      <c r="K376" s="9" t="n"/>
     </row>
     <row r="377">
       <c r="E377" s="9" t="n"/>
-      <c r="L377" s="9" t="n"/>
+      <c r="K377" s="9" t="n"/>
     </row>
     <row r="378">
       <c r="E378" s="9" t="n"/>
-      <c r="L378" s="9" t="n"/>
+      <c r="K378" s="9" t="n"/>
     </row>
     <row r="379">
       <c r="E379" s="9" t="n"/>
-      <c r="L379" s="9" t="n"/>
+      <c r="K379" s="9" t="n"/>
     </row>
     <row r="380">
       <c r="E380" s="9" t="n"/>
-      <c r="L380" s="9" t="n"/>
+      <c r="K380" s="9" t="n"/>
     </row>
     <row r="381">
       <c r="E381" s="9" t="n"/>
-      <c r="L381" s="9" t="n"/>
+      <c r="K381" s="9" t="n"/>
     </row>
     <row r="382">
       <c r="E382" s="9" t="n"/>
-      <c r="L382" s="9" t="n"/>
+      <c r="K382" s="9" t="n"/>
     </row>
     <row r="383">
       <c r="E383" s="9" t="n"/>
-      <c r="L383" s="9" t="n"/>
+      <c r="K383" s="9" t="n"/>
     </row>
     <row r="384">
       <c r="E384" s="9" t="n"/>
-      <c r="L384" s="9" t="n"/>
+      <c r="K384" s="9" t="n"/>
     </row>
     <row r="385">
       <c r="E385" s="9" t="n"/>
-      <c r="L385" s="9" t="n"/>
+      <c r="K385" s="9" t="n"/>
     </row>
     <row r="386">
       <c r="E386" s="9" t="n"/>
-      <c r="L386" s="9" t="n"/>
+      <c r="K386" s="9" t="n"/>
     </row>
     <row r="387">
       <c r="E387" s="9" t="n"/>
-      <c r="L387" s="9" t="n"/>
+      <c r="K387" s="9" t="n"/>
     </row>
     <row r="388">
       <c r="E388" s="9" t="n"/>
-      <c r="L388" s="9" t="n"/>
+      <c r="K388" s="9" t="n"/>
     </row>
     <row r="389">
       <c r="E389" s="9" t="n"/>
-      <c r="L389" s="9" t="n"/>
+      <c r="K389" s="9" t="n"/>
     </row>
     <row r="390">
       <c r="E390" s="9" t="n"/>
-      <c r="L390" s="9" t="n"/>
+      <c r="K390" s="9" t="n"/>
     </row>
     <row r="391">
       <c r="E391" s="9" t="n"/>
-      <c r="L391" s="9" t="n"/>
+      <c r="K391" s="9" t="n"/>
     </row>
     <row r="392">
       <c r="E392" s="9" t="n"/>
-      <c r="L392" s="9" t="n"/>
+      <c r="K392" s="9" t="n"/>
     </row>
     <row r="393">
       <c r="E393" s="9" t="n"/>
-      <c r="L393" s="9" t="n"/>
+      <c r="K393" s="9" t="n"/>
     </row>
     <row r="394">
       <c r="E394" s="9" t="n"/>
-      <c r="L394" s="9" t="n"/>
+      <c r="K394" s="9" t="n"/>
     </row>
     <row r="395">
       <c r="E395" s="9" t="n"/>
-      <c r="L395" s="9" t="n"/>
+      <c r="K395" s="9" t="n"/>
     </row>
     <row r="396">
       <c r="E396" s="9" t="n"/>
-      <c r="L396" s="9" t="n"/>
+      <c r="K396" s="9" t="n"/>
     </row>
     <row r="397">
       <c r="E397" s="9" t="n"/>
-      <c r="L397" s="9" t="n"/>
+      <c r="K397" s="9" t="n"/>
     </row>
     <row r="398">
       <c r="E398" s="9" t="n"/>
-      <c r="L398" s="9" t="n"/>
+      <c r="K398" s="9" t="n"/>
     </row>
     <row r="399">
       <c r="E399" s="9" t="n"/>
-      <c r="L399" s="9" t="n"/>
+      <c r="K399" s="9" t="n"/>
     </row>
     <row r="400">
       <c r="E400" s="9" t="n"/>
-      <c r="L400" s="9" t="n"/>
+      <c r="K400" s="9" t="n"/>
     </row>
     <row r="401">
       <c r="E401" s="9" t="n"/>
-      <c r="L401" s="9" t="n"/>
+      <c r="K401" s="9" t="n"/>
     </row>
     <row r="402">
       <c r="E402" s="9" t="n"/>
-      <c r="L402" s="9" t="n"/>
+      <c r="K402" s="9" t="n"/>
     </row>
     <row r="403">
       <c r="E403" s="9" t="n"/>
-      <c r="L403" s="9" t="n"/>
+      <c r="K403" s="9" t="n"/>
     </row>
     <row r="404">
       <c r="E404" s="9" t="n"/>
-      <c r="L404" s="9" t="n"/>
+      <c r="K404" s="9" t="n"/>
     </row>
     <row r="405">
       <c r="E405" s="9" t="n"/>
-      <c r="L405" s="9" t="n"/>
+      <c r="K405" s="9" t="n"/>
     </row>
     <row r="406">
       <c r="E406" s="9" t="n"/>
-      <c r="L406" s="9" t="n"/>
+      <c r="K406" s="9" t="n"/>
     </row>
     <row r="407">
       <c r="E407" s="9" t="n"/>
-      <c r="L407" s="9" t="n"/>
+      <c r="K407" s="9" t="n"/>
     </row>
     <row r="408">
       <c r="E408" s="9" t="n"/>
-      <c r="L408" s="9" t="n"/>
+      <c r="K408" s="9" t="n"/>
     </row>
     <row r="409">
       <c r="E409" s="9" t="n"/>
-      <c r="L409" s="9" t="n"/>
+      <c r="K409" s="9" t="n"/>
     </row>
     <row r="410">
       <c r="E410" s="9" t="n"/>
-      <c r="L410" s="9" t="n"/>
+      <c r="K410" s="9" t="n"/>
     </row>
     <row r="411">
       <c r="E411" s="9" t="n"/>
-      <c r="L411" s="9" t="n"/>
+      <c r="K411" s="9" t="n"/>
     </row>
     <row r="412">
       <c r="E412" s="9" t="n"/>
-      <c r="L412" s="9" t="n"/>
+      <c r="K412" s="9" t="n"/>
     </row>
     <row r="413">
       <c r="E413" s="9" t="n"/>
-      <c r="L413" s="9" t="n"/>
+      <c r="K413" s="9" t="n"/>
     </row>
     <row r="414">
       <c r="E414" s="9" t="n"/>
-      <c r="L414" s="9" t="n"/>
+      <c r="K414" s="9" t="n"/>
     </row>
     <row r="415">
       <c r="E415" s="9" t="n"/>
-      <c r="L415" s="9" t="n"/>
+      <c r="K415" s="9" t="n"/>
     </row>
     <row r="416">
       <c r="E416" s="9" t="n"/>
-      <c r="L416" s="9" t="n"/>
+      <c r="K416" s="9" t="n"/>
     </row>
     <row r="417">
       <c r="E417" s="9" t="n"/>
-      <c r="L417" s="9" t="n"/>
+      <c r="K417" s="9" t="n"/>
     </row>
     <row r="418">
       <c r="E418" s="9" t="n"/>
-      <c r="L418" s="9" t="n"/>
+      <c r="K418" s="9" t="n"/>
     </row>
     <row r="419">
       <c r="E419" s="9" t="n"/>
-      <c r="L419" s="9" t="n"/>
+      <c r="K419" s="9" t="n"/>
     </row>
     <row r="420">
       <c r="E420" s="9" t="n"/>
-      <c r="L420" s="9" t="n"/>
+      <c r="K420" s="9" t="n"/>
     </row>
     <row r="421">
       <c r="E421" s="9" t="n"/>
-      <c r="L421" s="9" t="n"/>
+      <c r="K421" s="9" t="n"/>
     </row>
     <row r="422">
       <c r="E422" s="9" t="n"/>
-      <c r="L422" s="9" t="n"/>
+      <c r="K422" s="9" t="n"/>
     </row>
     <row r="423">
       <c r="E423" s="9" t="n"/>
-      <c r="L423" s="9" t="n"/>
+      <c r="K423" s="9" t="n"/>
     </row>
     <row r="424">
       <c r="E424" s="9" t="n"/>
-      <c r="L424" s="9" t="n"/>
+      <c r="K424" s="9" t="n"/>
     </row>
     <row r="425">
       <c r="E425" s="9" t="n"/>
-      <c r="L425" s="9" t="n"/>
+      <c r="K425" s="9" t="n"/>
     </row>
     <row r="426">
       <c r="E426" s="9" t="n"/>
-      <c r="L426" s="9" t="n"/>
+      <c r="K426" s="9" t="n"/>
     </row>
     <row r="427">
       <c r="E427" s="9" t="n"/>
-      <c r="L427" s="9" t="n"/>
+      <c r="K427" s="9" t="n"/>
     </row>
     <row r="428">
       <c r="E428" s="9" t="n"/>
-      <c r="L428" s="9" t="n"/>
+      <c r="K428" s="9" t="n"/>
     </row>
     <row r="429">
       <c r="E429" s="9" t="n"/>
-      <c r="L429" s="9" t="n"/>
+      <c r="K429" s="9" t="n"/>
     </row>
     <row r="430">
       <c r="E430" s="9" t="n"/>
-      <c r="L430" s="9" t="n"/>
+      <c r="K430" s="9" t="n"/>
     </row>
     <row r="431">
       <c r="E431" s="9" t="n"/>
-      <c r="L431" s="9" t="n"/>
+      <c r="K431" s="9" t="n"/>
     </row>
     <row r="432">
       <c r="E432" s="9" t="n"/>
-      <c r="L432" s="9" t="n"/>
+      <c r="K432" s="9" t="n"/>
     </row>
     <row r="433">
       <c r="E433" s="9" t="n"/>
-      <c r="L433" s="9" t="n"/>
+      <c r="K433" s="9" t="n"/>
     </row>
     <row r="434">
       <c r="E434" s="9" t="n"/>
-      <c r="L434" s="9" t="n"/>
+      <c r="K434" s="9" t="n"/>
     </row>
     <row r="435">
       <c r="E435" s="9" t="n"/>
-      <c r="L435" s="9" t="n"/>
+      <c r="K435" s="9" t="n"/>
     </row>
     <row r="436">
       <c r="E436" s="9" t="n"/>
-      <c r="L436" s="9" t="n"/>
+      <c r="K436" s="9" t="n"/>
     </row>
     <row r="437">
       <c r="E437" s="9" t="n"/>
-      <c r="L437" s="9" t="n"/>
+      <c r="K437" s="9" t="n"/>
     </row>
     <row r="438">
       <c r="E438" s="9" t="n"/>
-      <c r="L438" s="9" t="n"/>
+      <c r="K438" s="9" t="n"/>
     </row>
     <row r="439">
       <c r="E439" s="9" t="n"/>
-      <c r="L439" s="9" t="n"/>
+      <c r="K439" s="9" t="n"/>
     </row>
     <row r="440">
       <c r="E440" s="9" t="n"/>
-      <c r="L440" s="9" t="n"/>
+      <c r="K440" s="9" t="n"/>
     </row>
     <row r="441">
       <c r="E441" s="9" t="n"/>
-      <c r="L441" s="9" t="n"/>
+      <c r="K441" s="9" t="n"/>
     </row>
     <row r="442">
       <c r="E442" s="9" t="n"/>
-      <c r="L442" s="9" t="n"/>
+      <c r="K442" s="9" t="n"/>
     </row>
     <row r="443">
       <c r="E443" s="9" t="n"/>
-      <c r="L443" s="9" t="n"/>
+      <c r="K443" s="9" t="n"/>
     </row>
     <row r="444">
       <c r="E444" s="9" t="n"/>
-      <c r="L444" s="9" t="n"/>
+      <c r="K444" s="9" t="n"/>
     </row>
     <row r="445">
       <c r="E445" s="9" t="n"/>
-      <c r="L445" s="9" t="n"/>
+      <c r="K445" s="9" t="n"/>
     </row>
     <row r="446">
       <c r="E446" s="9" t="n"/>
-      <c r="L446" s="9" t="n"/>
+      <c r="K446" s="9" t="n"/>
     </row>
     <row r="447">
       <c r="E447" s="9" t="n"/>
-      <c r="L447" s="9" t="n"/>
+      <c r="K447" s="9" t="n"/>
     </row>
     <row r="448">
       <c r="E448" s="9" t="n"/>
-      <c r="L448" s="9" t="n"/>
+      <c r="K448" s="9" t="n"/>
     </row>
     <row r="449">
       <c r="E449" s="9" t="n"/>
-      <c r="L449" s="9" t="n"/>
+      <c r="K449" s="9" t="n"/>
     </row>
     <row r="450">
       <c r="E450" s="9" t="n"/>
-      <c r="L450" s="9" t="n"/>
+      <c r="K450" s="9" t="n"/>
     </row>
     <row r="451">
       <c r="E451" s="9" t="n"/>
-      <c r="L451" s="9" t="n"/>
+      <c r="K451" s="9" t="n"/>
     </row>
     <row r="452">
       <c r="E452" s="9" t="n"/>
-      <c r="L452" s="9" t="n"/>
+      <c r="K452" s="9" t="n"/>
     </row>
     <row r="453">
       <c r="E453" s="9" t="n"/>
-      <c r="L453" s="9" t="n"/>
+      <c r="K453" s="9" t="n"/>
     </row>
     <row r="454">
       <c r="E454" s="9" t="n"/>
-      <c r="L454" s="9" t="n"/>
+      <c r="K454" s="9" t="n"/>
     </row>
     <row r="455">
       <c r="E455" s="9" t="n"/>
-      <c r="L455" s="9" t="n"/>
+      <c r="K455" s="9" t="n"/>
     </row>
     <row r="456">
       <c r="E456" s="9" t="n"/>
-      <c r="L456" s="9" t="n"/>
+      <c r="K456" s="9" t="n"/>
     </row>
     <row r="457">
       <c r="E457" s="9" t="n"/>
-      <c r="L457" s="9" t="n"/>
+      <c r="K457" s="9" t="n"/>
     </row>
     <row r="458">
       <c r="E458" s="9" t="n"/>
-      <c r="L458" s="9" t="n"/>
+      <c r="K458" s="9" t="n"/>
     </row>
     <row r="459">
       <c r="E459" s="9" t="n"/>
-      <c r="L459" s="9" t="n"/>
+      <c r="K459" s="9" t="n"/>
     </row>
     <row r="460">
       <c r="E460" s="9" t="n"/>
-      <c r="L460" s="9" t="n"/>
+      <c r="K460" s="9" t="n"/>
     </row>
     <row r="461">
       <c r="E461" s="9" t="n"/>
-      <c r="L461" s="9" t="n"/>
+      <c r="K461" s="9" t="n"/>
     </row>
     <row r="462">
       <c r="E462" s="9" t="n"/>
-      <c r="L462" s="9" t="n"/>
+      <c r="K462" s="9" t="n"/>
     </row>
     <row r="463">
       <c r="E463" s="9" t="n"/>
-      <c r="L463" s="9" t="n"/>
+      <c r="K463" s="9" t="n"/>
     </row>
     <row r="464">
       <c r="E464" s="9" t="n"/>
-      <c r="L464" s="9" t="n"/>
+      <c r="K464" s="9" t="n"/>
     </row>
     <row r="465">
       <c r="E465" s="9" t="n"/>
-      <c r="L465" s="9" t="n"/>
+      <c r="K465" s="9" t="n"/>
     </row>
     <row r="466">
       <c r="E466" s="9" t="n"/>
-      <c r="L466" s="9" t="n"/>
+      <c r="K466" s="9" t="n"/>
     </row>
     <row r="467">
       <c r="E467" s="9" t="n"/>
-      <c r="L467" s="9" t="n"/>
+      <c r="K467" s="9" t="n"/>
     </row>
     <row r="468">
       <c r="E468" s="9" t="n"/>
-      <c r="L468" s="9" t="n"/>
+      <c r="K468" s="9" t="n"/>
     </row>
     <row r="469">
       <c r="E469" s="9" t="n"/>
-      <c r="L469" s="9" t="n"/>
+      <c r="K469" s="9" t="n"/>
     </row>
     <row r="470">
       <c r="E470" s="9" t="n"/>
-      <c r="L470" s="9" t="n"/>
+      <c r="K470" s="9" t="n"/>
     </row>
     <row r="471">
       <c r="E471" s="9" t="n"/>
-      <c r="L471" s="9" t="n"/>
+      <c r="K471" s="9" t="n"/>
     </row>
     <row r="472">
       <c r="E472" s="9" t="n"/>
-      <c r="L472" s="9" t="n"/>
+      <c r="K472" s="9" t="n"/>
     </row>
     <row r="473">
       <c r="E473" s="9" t="n"/>
-      <c r="L473" s="9" t="n"/>
+      <c r="K473" s="9" t="n"/>
     </row>
     <row r="474">
       <c r="E474" s="9" t="n"/>
-      <c r="L474" s="9" t="n"/>
+      <c r="K474" s="9" t="n"/>
     </row>
     <row r="475">
       <c r="E475" s="9" t="n"/>
-      <c r="L475" s="9" t="n"/>
+      <c r="K475" s="9" t="n"/>
     </row>
     <row r="476">
       <c r="E476" s="9" t="n"/>
-      <c r="L476" s="9" t="n"/>
+      <c r="K476" s="9" t="n"/>
     </row>
     <row r="477">
       <c r="E477" s="9" t="n"/>
-      <c r="L477" s="9" t="n"/>
+      <c r="K477" s="9" t="n"/>
     </row>
     <row r="478">
       <c r="E478" s="9" t="n"/>
-      <c r="L478" s="9" t="n"/>
+      <c r="K478" s="9" t="n"/>
     </row>
     <row r="479">
       <c r="E479" s="9" t="n"/>
-      <c r="L479" s="9" t="n"/>
+      <c r="K479" s="9" t="n"/>
     </row>
     <row r="480">
       <c r="E480" s="9" t="n"/>
-      <c r="L480" s="9" t="n"/>
+      <c r="K480" s="9" t="n"/>
     </row>
     <row r="481">
       <c r="E481" s="9" t="n"/>
-      <c r="L481" s="9" t="n"/>
+      <c r="K481" s="9" t="n"/>
     </row>
     <row r="482">
       <c r="E482" s="9" t="n"/>
-      <c r="L482" s="9" t="n"/>
+      <c r="K482" s="9" t="n"/>
     </row>
     <row r="483">
       <c r="E483" s="9" t="n"/>
-      <c r="L483" s="9" t="n"/>
+      <c r="K483" s="9" t="n"/>
     </row>
     <row r="484">
       <c r="E484" s="9" t="n"/>
-      <c r="L484" s="9" t="n"/>
+      <c r="K484" s="9" t="n"/>
     </row>
     <row r="485">
       <c r="E485" s="9" t="n"/>
-      <c r="L485" s="9" t="n"/>
+      <c r="K485" s="9" t="n"/>
     </row>
     <row r="486">
       <c r="E486" s="9" t="n"/>
-      <c r="L486" s="9" t="n"/>
+      <c r="K486" s="9" t="n"/>
     </row>
     <row r="487">
       <c r="E487" s="9" t="n"/>
-      <c r="L487" s="9" t="n"/>
+      <c r="K487" s="9" t="n"/>
     </row>
     <row r="488">
       <c r="E488" s="9" t="n"/>
-      <c r="L488" s="9" t="n"/>
+      <c r="K488" s="9" t="n"/>
     </row>
     <row r="489">
       <c r="E489" s="9" t="n"/>
-      <c r="L489" s="9" t="n"/>
+      <c r="K489" s="9" t="n"/>
     </row>
     <row r="490">
       <c r="E490" s="9" t="n"/>
-      <c r="L490" s="9" t="n"/>
+      <c r="K490" s="9" t="n"/>
     </row>
     <row r="491">
       <c r="E491" s="9" t="n"/>
-      <c r="L491" s="9" t="n"/>
+      <c r="K491" s="9" t="n"/>
     </row>
     <row r="492">
       <c r="E492" s="9" t="n"/>
-      <c r="L492" s="9" t="n"/>
+      <c r="K492" s="9" t="n"/>
     </row>
     <row r="493">
       <c r="E493" s="9" t="n"/>
-      <c r="L493" s="9" t="n"/>
+      <c r="K493" s="9" t="n"/>
     </row>
     <row r="494">
       <c r="E494" s="9" t="n"/>
-      <c r="L494" s="9" t="n"/>
+      <c r="K494" s="9" t="n"/>
     </row>
     <row r="495">
       <c r="E495" s="9" t="n"/>
-      <c r="L495" s="9" t="n"/>
+      <c r="K495" s="9" t="n"/>
     </row>
     <row r="496">
       <c r="E496" s="9" t="n"/>
-      <c r="L496" s="9" t="n"/>
+      <c r="K496" s="9" t="n"/>
     </row>
     <row r="497">
       <c r="E497" s="9" t="n"/>
-      <c r="L497" s="9" t="n"/>
+      <c r="K497" s="9" t="n"/>
     </row>
     <row r="498">
       <c r="E498" s="9" t="n"/>
-      <c r="L498" s="9" t="n"/>
+      <c r="K498" s="9" t="n"/>
     </row>
     <row r="499">
       <c r="E499" s="9" t="n"/>
-      <c r="L499" s="9" t="n"/>
+      <c r="K499" s="9" t="n"/>
     </row>
     <row r="500">
       <c r="E500" s="9" t="n"/>
-      <c r="L500" s="9" t="n"/>
+      <c r="K500" s="9" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
